--- a/关键词表.xlsx
+++ b/关键词表.xlsx
@@ -30,6 +30,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>太阳系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,10 +43,6 @@
   </si>
   <si>
     <t>京剧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -442,7 +442,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,7 +453,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>30</v>

--- a/关键词表.xlsx
+++ b/关键词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,18 +31,6 @@
   </si>
   <si>
     <t>limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京剧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +395,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -438,37 +426,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>101</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>

--- a/关键词表.xlsx
+++ b/关键词表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,11 +26,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>春节</t>
+    <t>limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit</t>
+    <t>奥运场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +399,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -411,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,15 +423,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
